--- a/01_Getting Started with Data Visualization/02_Data Visualizations with Excel Data Tables/premier_league.xlsx
+++ b/01_Getting Started with Data Visualization/02_Data Visualizations with Excel Data Tables/premier_league.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sota/Dropbox/02 Company/02 Resolving Python/01 Products/01 Courses/02 Posted/01 Resolving Python_Data Visualization/Materials/course-resolving-python-data-visualization/01_Getting Started with Data Visualization/02_Data Visualizations with Excel Data Tables/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37053775-5953-884D-833E-AE77083E537B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -88,8 +94,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,27 +120,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -143,15 +134,21 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -198,7 +195,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -230,9 +227,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,6 +279,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -439,242 +472,244 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
+        <v>99</v>
+      </c>
+      <c r="C2">
         <v>93</v>
       </c>
-      <c r="C2">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
+        <v>94</v>
+      </c>
+      <c r="C3">
         <v>92</v>
       </c>
-      <c r="C3">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
+        <v>76</v>
+      </c>
+      <c r="C4">
         <v>74</v>
       </c>
-      <c r="C4">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
+        <v>69</v>
+      </c>
+      <c r="C5">
         <v>71</v>
       </c>
-      <c r="C5">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
+        <v>61</v>
+      </c>
+      <c r="C6">
         <v>69</v>
       </c>
-      <c r="C6">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
+        <v>57</v>
+      </c>
+      <c r="C7">
         <v>58</v>
       </c>
-      <c r="C7">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8">
+        <v>60</v>
+      </c>
+      <c r="C8">
         <v>56</v>
       </c>
-      <c r="C8">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9">
+        <v>62</v>
+      </c>
+      <c r="C9">
         <v>52</v>
       </c>
-      <c r="C9">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10">
+        <v>42</v>
+      </c>
+      <c r="C10">
         <v>51</v>
       </c>
-      <c r="C10">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11">
+        <v>38</v>
+      </c>
+      <c r="C11">
         <v>51</v>
       </c>
-      <c r="C11">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12">
+        <v>44</v>
+      </c>
+      <c r="C12">
         <v>49</v>
       </c>
-      <c r="C12">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13">
+        <v>50</v>
+      </c>
+      <c r="C13">
         <v>48</v>
       </c>
-      <c r="C13">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14">
+        <v>48</v>
+      </c>
+      <c r="C14">
         <v>46</v>
       </c>
-      <c r="C14">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15">
+        <v>52</v>
+      </c>
+      <c r="C15">
         <v>45</v>
       </c>
-      <c r="C15">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16">
+        <v>43</v>
+      </c>
+      <c r="C16">
         <v>40</v>
       </c>
-      <c r="C16">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17">
+        <v>43</v>
+      </c>
+      <c r="C17">
         <v>39</v>
       </c>
-      <c r="C17">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18">
+        <v>42</v>
+      </c>
+      <c r="C18">
         <v>38</v>
       </c>
-      <c r="C18">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19">
+        <v>34</v>
+      </c>
+      <c r="C19">
         <v>35</v>
       </c>
-      <c r="C19">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20">
+        <v>34</v>
+      </c>
+      <c r="C20">
         <v>23</v>
       </c>
-      <c r="C20">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21">
+        <v>23</v>
+      </c>
+      <c r="C21">
         <v>22</v>
-      </c>
-      <c r="C21">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
